--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject33.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject33.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.74703654326765645</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -185,7 +185,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1" s="0">
         <v>0</v>
@@ -281,7 +281,7 @@
         <v>0</v>
       </c>
       <c r="AZ1" s="0">
-        <v>0</v>
+        <v>0.82714178563638097</v>
       </c>
       <c r="BA1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.88065064194754927</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.63559665073007965</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.76264433358092087</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.72931738354688391</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="0">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="0">
-        <v>0</v>
+        <v>0.57920687490758671</v>
       </c>
       <c r="BK2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.61711544468715362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.88818457506703719</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.53973778938473027</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.5849131381881878</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.91401628930314416</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>0</v>
+        <v>0.6338732887731281</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="AW3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.83770002496798712</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.72330474189067939</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.64047091493419739</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.57624915738519489</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="0">
-        <v>0</v>
+        <v>0.69813828714467063</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.97476964188683835</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.94545971578703369</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.79531997240073293</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.84322242827432614</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="0">
         <v>0</v>
@@ -1167,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.89834786704977931</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.53006243089511451</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.86050829903361969</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="0">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="BD6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="0">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="0">
-        <v>0</v>
+        <v>0.59619281600016694</v>
       </c>
       <c r="BM6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.67698377378803065</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.81282965743498792</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.78438189309129724</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.75021505844618086</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0</v>
+        <v>0.72189978070274818</v>
       </c>
       <c r="R7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="0">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="BD7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="0">
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>0</v>
+        <v>0.6463268473574082</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1588,16 +1588,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.83173609470435572</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.60566097691447474</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.98787871966049412</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="0">
-        <v>0</v>
+        <v>0.69139024094164347</v>
       </c>
       <c r="Y8" s="0">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>0.68632362437770955</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.70585583114732098</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.92604456643097643</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.9405812288715435</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.74194939335814869</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.79320817395477539</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.74697050138233467</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.84807277193024388</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.88414542969723586</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.88164477576356881</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.61135929878232065</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         <v>0</v>
       </c>
       <c r="AR11" s="0">
-        <v>0</v>
+        <v>0.81290108152746332</v>
       </c>
       <c r="AS11" s="0">
         <v>0</v>
       </c>
       <c r="AT11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="0">
         <v>0</v>
@@ -2421,16 +2421,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.76057093912116502</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.55505185235707</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.50095727873039864</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="0">
-        <v>0</v>
+        <v>0.93003540703551835</v>
       </c>
       <c r="X12" s="0">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="0">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="AM12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="0">
         <v>0</v>
@@ -2630,22 +2630,22 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.73515887663867341</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.50694473924829375</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.68622787893596637</v>
       </c>
       <c r="P13" s="0">
-        <v>0</v>
+        <v>0.67621293523805459</v>
       </c>
       <c r="Q13" s="0">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="0">
-        <v>0</v>
+        <v>0.82360405313901608</v>
       </c>
       <c r="AL13" s="0">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.91872003366055632</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.84546077644848627</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="0">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="BB14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="0">
         <v>0</v>
@@ -3048,25 +3048,25 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.54349737536208154</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.88090188483088605</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.67530201334041162</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.80264925778091545</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
       </c>
       <c r="S15" s="0">
-        <v>1</v>
+        <v>0.54889805711025985</v>
       </c>
       <c r="T15" s="0">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
@@ -3254,22 +3254,22 @@
         <v>0</v>
       </c>
       <c r="M16" s="0">
-        <v>0</v>
+        <v>0.85610344400150773</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.71046366460997801</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.99007883211269565</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.6680608215815198</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.74858739419265152</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="0">
-        <v>0</v>
+        <v>0.60981439311375985</v>
       </c>
       <c r="AJ16" s="0">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AY16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="0">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="0">
-        <v>0</v>
+        <v>0.50922272611569197</v>
       </c>
       <c r="BD16" s="0">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0">
-        <v>0</v>
+        <v>0.78107859466354057</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.69717280874381138</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.83051995434604375</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.72129765449411021</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.55895309255389747</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.68024230786277817</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.52900046657056421</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3878,22 +3878,22 @@
         <v>0</v>
       </c>
       <c r="O19" s="0">
-        <v>1</v>
+        <v>0.60013942726850911</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.82230567950177802</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.69048197081921836</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.86468392682999673</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="0">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.51301316227161575</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.52012537468253439</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.57408414373633221</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AM20" s="0">
-        <v>0</v>
+        <v>0.93943902327662332</v>
       </c>
       <c r="AN20" s="0">
         <v>0</v>
@@ -4305,16 +4305,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.97791007565900956</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.95770660864229207</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.77505958765227789</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.63018234221595848</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.7779437197230048</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="0">
-        <v>0</v>
+        <v>0.50137008942090966</v>
       </c>
       <c r="AP22" s="0">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>0</v>
+        <v>0.82494389632138088</v>
       </c>
       <c r="M23" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.65975251515617139</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.86700214020334454</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="0">
-        <v>0</v>
+        <v>0.71421301222811429</v>
       </c>
       <c r="AN23" s="0">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="0">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="0">
-        <v>0</v>
+        <v>0.76288748067426293</v>
       </c>
       <c r="I24" s="0">
         <v>0</v>
@@ -4929,16 +4929,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.71571557299724931</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.76721474086436015</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="0">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="BH24" s="0">
-        <v>0</v>
+        <v>0.99662288591435966</v>
       </c>
       <c r="BI24" s="0">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="BO24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0</v>
+        <v>0.93573087827197821</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.76897903837515824</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="AX25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="0">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="BH25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="0">
         <v>0</v>
@@ -5350,16 +5350,16 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>0</v>
+        <v>0.94920790480382888</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.77008646228689837</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.86943549206766746</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="BB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC26" s="0">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
@@ -5556,16 +5556,16 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.84161567392931114</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.87816663426183594</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.50904917008451522</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="0">
-        <v>0</v>
+        <v>0.74417491711053352</v>
       </c>
       <c r="AS27" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.68550392006788008</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.54528711969093158</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.89646914390960819</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.86436664106678085</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5977,16 +5977,16 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.83890410492384282</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.7036760156193792</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.82642874261569665</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="0">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="BB29" s="0">
-        <v>0</v>
+        <v>0.98466718804296804</v>
       </c>
       <c r="BC29" s="0">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>0</v>
+        <v>0.50278847698303397</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.65473194379259414</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.87653925829346413</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="AM30" s="0">
-        <v>0</v>
+        <v>0.82871316105428194</v>
       </c>
       <c r="AN30" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.6555080985799917</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.70895050737275067</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="0">
-        <v>0</v>
+        <v>0.53438557769136641</v>
       </c>
       <c r="AV31" s="0">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="0">
         <v>0</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="BI31" s="0">
-        <v>0</v>
+        <v>0.7760779000536957</v>
       </c>
       <c r="BJ31" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.62303177894925721</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.59317674241057428</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.94307151885699225</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.52262944709470505</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.62802402968642568</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.53268253076832717</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="BB33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="0">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.66197130790442738</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.88347439474527745</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.65325712622845877</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" s="0">
-        <v>0</v>
+        <v>0.89961531110530035</v>
       </c>
       <c r="BA34" s="0">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="0">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="0">
-        <v>0</v>
+        <v>0.84573297181557827</v>
       </c>
       <c r="Q35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.8132977225522664</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.60674089772368367</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.75579254283358233</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.50618735867623799</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="BL36" s="0">
-        <v>1</v>
+        <v>0.89521842884066738</v>
       </c>
       <c r="BM36" s="0">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="0">
-        <v>0</v>
+        <v>0.6531108242093655</v>
       </c>
       <c r="N37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.55787593211475506</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.84854541978349274</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.56222531975113177</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="AX37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY37" s="0">
         <v>0</v>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.79665827673005118</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.83716787919587843</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>0</v>
+        <v>0.70584572196521278</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="0">
-        <v>0</v>
+        <v>0.95695871465503135</v>
       </c>
       <c r="X39" s="0">
         <v>0</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="AD39" s="0">
-        <v>0</v>
+        <v>0.70919594611394932</v>
       </c>
       <c r="AE39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.90155018669134013</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.82141349094812766</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.71634144711413139</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.53814508782136183</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="AV39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="BL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM39" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.66187687334456613</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.90780976577027639</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.87730004247641058</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>0</v>
+        <v>0.67240766380474981</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="0">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="0">
-        <v>0</v>
+        <v>0.50906738229022075</v>
       </c>
       <c r="W41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.63099555163171916</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.81612142809158872</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.81303906911178836</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.85419184769256618</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.68392707109125772</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.63747701152652625</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.80322116124231702</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="BN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO42" s="0">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.73217575806938262</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.77473998540627209</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.97636113927199752</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.68528960678509954</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="BD43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE43" s="0">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="0">
-        <v>0</v>
+        <v>0.94949944475390624</v>
       </c>
       <c r="L44" s="0">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>0</v>
+        <v>0.80469882820150107</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.60330489449238511</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.88467865177394445</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.80117816949852605</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.6446557384506002</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.90649516077659853</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.67089223168573209</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9360,10 +9360,10 @@
         <v>0</v>
       </c>
       <c r="BE45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG45" s="0">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="0">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.55150503887228786</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.58636336341293283</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.55250918189314102</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.72642366769890643</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="0">
-        <v>0</v>
+        <v>0.67201957450397953</v>
       </c>
       <c r="AF47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.98927120892229192</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.60110715767763523</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.72377708433468324</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="BK47" s="0">
-        <v>0</v>
+        <v>0.69887755876930169</v>
       </c>
       <c r="BL47" s="0">
         <v>0</v>
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="AM48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.70542691518988887</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.53936884029764176</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.92955951659171798</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>0</v>
+        <v>0.6385131049435373</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.57264908314348295</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.73582615060134937</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.92428756118193911</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.87807102674456794</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -10294,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="0">
         <v>0</v>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="0">
         <v>0</v>
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.65053490057869845</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.58697137062078764</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.57660648448056639</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.65444900336629641</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="0">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.62704653701078217</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.85730485250500688</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.64895317744300396</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="BH51" s="0">
-        <v>0</v>
+        <v>0.59039001620120957</v>
       </c>
       <c r="BI51" s="0">
         <v>0</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="BO51" s="0">
-        <v>0</v>
+        <v>0.72434159516229002</v>
       </c>
       <c r="BP51" s="0">
         <v>0</v>
@@ -10634,7 +10634,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0</v>
+        <v>0.91975406281535488</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>0</v>
+        <v>0.66585028168124882</v>
       </c>
       <c r="AI52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.82202774071993345</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10790,10 +10790,10 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.97974168521642291</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="BF52" s="0">
-        <v>0</v>
+        <v>0.83906215185973188</v>
       </c>
       <c r="BG52" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.72646540882458954</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.68851379775675547</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.96534632256426123</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.75843793689437</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>0</v>
+        <v>0.84079913372853876</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" s="0">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="0">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="0">
-        <v>0</v>
+        <v>0.60000436220289932</v>
       </c>
       <c r="AD54" s="0">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="AG54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54" s="0">
         <v>0</v>
@@ -11199,16 +11199,16 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.7719021089533511</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="BM54" s="0">
-        <v>0</v>
+        <v>0.75605379106316573</v>
       </c>
       <c r="BN54" s="0">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="0">
-        <v>0</v>
+        <v>0.64897710230782546</v>
       </c>
       <c r="Q55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.88246764810152611</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.73580808263786202</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="BM55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN55" s="0">
         <v>0</v>
@@ -11473,10 +11473,10 @@
         <v>0</v>
       </c>
       <c r="F56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="0">
         <v>0</v>
@@ -11584,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="0">
         <v>0</v>
@@ -11620,22 +11620,22 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.70894655114142302</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.67002141867608778</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
       </c>
       <c r="BH56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI56" s="0">
         <v>0</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="0">
         <v>0</v>
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="AW57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.64943446762214885</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.99898599692008538</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.9449768482713321</v>
       </c>
       <c r="BG57" s="0">
-        <v>0</v>
+        <v>0.6776013747323455</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11856,10 +11856,10 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57" s="0">
-        <v>0</v>
+        <v>0.74991288049312166</v>
       </c>
       <c r="BO57" s="0">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>0</v>
+        <v>0.96826157771932075</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -12002,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="0">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="AZ58" s="0">
-        <v>0</v>
+        <v>0.57476612810404182</v>
       </c>
       <c r="BA58" s="0">
         <v>0</v>
@@ -12035,10 +12035,10 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.82390067560935787</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.78434697451623836</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.61537919072277836</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0</v>
+        <v>0.99704757672321076</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.71514345099486143</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.50738386672648406</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12351,10 +12351,10 @@
         <v>0</v>
       </c>
       <c r="X60" s="0">
-        <v>0</v>
+        <v>0.90461522459048993</v>
       </c>
       <c r="Y60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="AY60" s="0">
-        <v>0</v>
+        <v>0.7183226716180735</v>
       </c>
       <c r="AZ60" s="0">
         <v>0</v>
@@ -12447,22 +12447,22 @@
         <v>0</v>
       </c>
       <c r="BD60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE60" s="0">
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.89893436904677193</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.86718029319361423</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.53354731187498672</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="0">
-        <v>0</v>
+        <v>0.73447515083613546</v>
       </c>
       <c r="AF61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.69641256659084483</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.9959562308782175</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.52840392890563459</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12697,13 +12697,13 @@
         <v>0</v>
       </c>
       <c r="B62" s="0">
-        <v>0</v>
+        <v>0.71162190037889483</v>
       </c>
       <c r="C62" s="0">
         <v>0</v>
       </c>
       <c r="D62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="0">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>0</v>
+        <v>0.84977854657006979</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12874,16 +12874,16 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="0">
         <v>0</v>
@@ -13038,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="AU63" s="0">
-        <v>0</v>
+        <v>0.73005529751257159</v>
       </c>
       <c r="AV63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.95735672772522373</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.75004755833844583</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.98118341288394118</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="0">
-        <v>0</v>
+        <v>0.70118028540126209</v>
       </c>
       <c r="G64" s="0">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>1</v>
+        <v>0.82118530921880295</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.60988002435268229</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.7869614567748755</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.72951265076962379</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13471,16 +13471,16 @@
         <v>0</v>
       </c>
       <c r="BB65" s="0">
-        <v>0</v>
+        <v>0.93186174303007885</v>
       </c>
       <c r="BC65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD65" s="0">
         <v>0</v>
       </c>
       <c r="BE65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.63392362657315249</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.62096593475601503</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.79445399380035275</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.99991956515623914</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="0">
         <v>0</v>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="BE66" s="0">
-        <v>0</v>
+        <v>0.78624459981834627</v>
       </c>
       <c r="BF66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.64012330043578147</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.65663688374405771</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.75726905094319585</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.54174472837746745</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13793,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="0">
         <v>0</v>
@@ -13874,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="AY67" s="0">
-        <v>0</v>
+        <v>0.90626575079154503</v>
       </c>
       <c r="AZ67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.79963196741190723</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.84502281112698907</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.69088698842695806</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.81931950067113424</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.71403080580882672</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.68806924219592558</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject33.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject33.xlsx
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0.74703654326765645</v>
+        <v>0.88818457506703719</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -281,7 +281,7 @@
         <v>0</v>
       </c>
       <c r="AZ1" s="0">
-        <v>0.82714178563638097</v>
+        <v>0.91975406281535488</v>
       </c>
       <c r="BA1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0.88065064194754927</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.63559665073007965</v>
+        <v>0.69088698842695806</v>
       </c>
     </row>
     <row r="2">
@@ -343,7 +343,7 @@
         <v>0.76264433358092087</v>
       </c>
       <c r="D2" s="0">
-        <v>0.72931738354688391</v>
+        <v>0.83770002496798712</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="0">
-        <v>0.57920687490758671</v>
+        <v>0.71162190037889483</v>
       </c>
       <c r="BK2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.61711544468715362</v>
+        <v>0.81931950067113424</v>
       </c>
     </row>
     <row r="3">
@@ -543,16 +543,16 @@
         <v>0.88818457506703719</v>
       </c>
       <c r="B3" s="0">
-        <v>0.53973778938473027</v>
+        <v>0.76264433358092087</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.5849131381881878</v>
+        <v>0.72330474189067939</v>
       </c>
       <c r="E3" s="0">
-        <v>0.91401628930314416</v>
+        <v>0.97476964188683835</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>0.6338732887731281</v>
+        <v>0.68632362437770955</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.64047091493419739</v>
+        <v>0.94545971578703369</v>
       </c>
       <c r="F4" s="0">
-        <v>0.57624915738519489</v>
+        <v>0.89834786704977931</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0.89834786704977931</v>
       </c>
       <c r="E6" s="0">
-        <v>0.53006243089511451</v>
+        <v>0.79531997240073293</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="0">
-        <v>0.59619281600016694</v>
+        <v>0.70118028540126209</v>
       </c>
       <c r="BM6" s="0">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.67698377378803065</v>
+        <v>0.84322242827432614</v>
       </c>
       <c r="F7" s="0">
-        <v>0.81282965743498792</v>
+        <v>0.86050829903361969</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.78438189309129724</v>
+        <v>0.83173609470435572</v>
       </c>
       <c r="I7" s="0">
         <v>0.75021505844618086</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.72189978070274818</v>
+        <v>0.78107859466354057</v>
       </c>
       <c r="R7" s="0">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>0.6463268473574082</v>
+        <v>0.96826157771932075</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.60566097691447474</v>
+        <v>0.92604456643097643</v>
       </c>
       <c r="J8" s="0">
         <v>0.98787871966049412</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="0">
-        <v>0.69139024094164347</v>
+        <v>0.76288748067426293</v>
       </c>
       <c r="Y8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.70585583114732098</v>
+        <v>0.75021505844618086</v>
       </c>
       <c r="H9" s="0">
         <v>0.92604456643097643</v>
@@ -2003,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.74194939335814869</v>
+        <v>0.98787871966049412</v>
       </c>
       <c r="I10" s="0">
-        <v>0.79320817395477539</v>
+        <v>0.9405812288715435</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.74697050138233467</v>
+        <v>0.88414542969723586</v>
       </c>
       <c r="L10" s="0">
         <v>0.84807277193024388</v>
@@ -2224,7 +2224,7 @@
         <v>0.88164477576356881</v>
       </c>
       <c r="M11" s="0">
-        <v>0.61135929878232065</v>
+        <v>0.73515887663867341</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="0">
-        <v>0.81290108152746332</v>
+        <v>0.94949944475390624</v>
       </c>
       <c r="AS11" s="0">
         <v>0</v>
@@ -2421,16 +2421,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.76057093912116502</v>
+        <v>0.84807277193024388</v>
       </c>
       <c r="K12" s="0">
-        <v>0.55505185235707</v>
+        <v>0.88164477576356881</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.50095727873039864</v>
+        <v>0.50694473924829375</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0.68622787893596637</v>
       </c>
       <c r="P13" s="0">
-        <v>0.67621293523805459</v>
+        <v>0.85610344400150773</v>
       </c>
       <c r="Q13" s="0">
         <v>0</v>
@@ -3048,16 +3048,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.54349737536208154</v>
+        <v>0.68622787893596637</v>
       </c>
       <c r="N15" s="0">
-        <v>0.88090188483088605</v>
+        <v>0.91872003366055632</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.67530201334041162</v>
+        <v>0.99007883211269565</v>
       </c>
       <c r="Q15" s="0">
         <v>0.80264925778091545</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="0">
-        <v>0.54889805711025985</v>
+        <v>0.60013942726850911</v>
       </c>
       <c r="T15" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0.85610344400150773</v>
       </c>
       <c r="N16" s="0">
-        <v>0.71046366460997801</v>
+        <v>0.84546077644848627</v>
       </c>
       <c r="O16" s="0">
         <v>0.99007883211269565</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.6680608215815198</v>
+        <v>0.83051995434604375</v>
       </c>
       <c r="R16" s="0">
         <v>0.74858739419265152</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="0">
-        <v>0.60981439311375985</v>
+        <v>0.84573297181557827</v>
       </c>
       <c r="AJ16" s="0">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="0">
-        <v>0.50922272611569197</v>
+        <v>0.64897710230782546</v>
       </c>
       <c r="BD16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.69717280874381138</v>
+        <v>0.80264925778091545</v>
       </c>
       <c r="P17" s="0">
         <v>0.83051995434604375</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0.72129765449411021</v>
+        <v>0.82230567950177802</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.55895309255389747</v>
+        <v>0.74858739419265152</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.68024230786277817</v>
+        <v>0.69048197081921836</v>
       </c>
       <c r="T18" s="0">
         <v>0.52900046657056421</v>
@@ -4093,16 +4093,16 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.51301316227161575</v>
+        <v>0.52900046657056421</v>
       </c>
       <c r="S20" s="0">
-        <v>0.52012537468253439</v>
+        <v>0.86468392682999673</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.57408414373633221</v>
+        <v>0.97791007565900956</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0.63018234221595848</v>
+        <v>0.95770660864229207</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="0">
-        <v>0.50137008942090966</v>
+        <v>0.50906738229022075</v>
       </c>
       <c r="AP22" s="0">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>0.82494389632138088</v>
+        <v>0.93003540703551835</v>
       </c>
       <c r="M23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.65975251515617139</v>
+        <v>0.77505958765227789</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="0">
-        <v>0.71421301222811429</v>
+        <v>0.95695871465503135</v>
       </c>
       <c r="AN23" s="0">
         <v>0</v>
@@ -4929,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.71571557299724931</v>
+        <v>0.7779437197230048</v>
       </c>
       <c r="W24" s="0">
-        <v>0.76721474086436015</v>
+        <v>0.86700214020334454</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.93573087827197821</v>
+        <v>0.94920790480382888</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.76897903837515824</v>
+        <v>0.84161567392931114</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.77008646228689837</v>
+        <v>0.87816663426183594</v>
       </c>
       <c r="AB26" s="0">
         <v>0.86943549206766746</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.50904917008451522</v>
+        <v>0.54528711969093158</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="0">
-        <v>0.74417491711053352</v>
+        <v>0.80469882820150107</v>
       </c>
       <c r="AS27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.68550392006788008</v>
+        <v>0.86943549206766746</v>
       </c>
       <c r="AA28" s="0">
         <v>0.54528711969093158</v>
@@ -5977,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.83890410492384282</v>
+        <v>0.89646914390960819</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.7036760156193792</v>
+        <v>0.87653925829346413</v>
       </c>
       <c r="AE29" s="0">
         <v>0.82642874261569665</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>0.50278847698303397</v>
+        <v>0.69813828714467063</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.65473194379259414</v>
+        <v>0.86436664106678085</v>
       </c>
       <c r="AC30" s="0">
         <v>0.87653925829346413</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.6555080985799917</v>
+        <v>0.82642874261569665</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="0">
-        <v>0.53438557769136641</v>
+        <v>0.67201957450397953</v>
       </c>
       <c r="AV31" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.62303177894925721</v>
+        <v>0.70895050737275067</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6813,16 +6813,16 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.52262944709470505</v>
+        <v>0.59317674241057428</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.62802402968642568</v>
+        <v>0.88347439474527745</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.53268253076832717</v>
+        <v>0.8132977225522664</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.66197130790442738</v>
+        <v>0.94307151885699225</v>
       </c>
       <c r="AG34" s="0">
         <v>0.88347439474527745</v>
@@ -7231,7 +7231,7 @@
         <v>0.8132977225522664</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.60674089772368367</v>
+        <v>0.65325712622845877</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.50618735867623799</v>
+        <v>0.84854541978349274</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="0">
-        <v>0.6531108242093655</v>
+        <v>0.82360405313901608</v>
       </c>
       <c r="N37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.55787593211475506</v>
+        <v>0.75579254283358233</v>
       </c>
       <c r="AJ37" s="0">
         <v>0.84854541978349274</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.56222531975113177</v>
+        <v>0.90155018669134013</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.79665827673005118</v>
+        <v>0.82141349094812766</v>
       </c>
       <c r="AN38" s="0">
         <v>0.83716787919587843</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>0.70584572196521278</v>
+        <v>0.93943902327662332</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="AD39" s="0">
-        <v>0.70919594611394932</v>
+        <v>0.82871316105428194</v>
       </c>
       <c r="AE39" s="0">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.71634144711413139</v>
+        <v>0.90780976577027639</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.53814508782136183</v>
+        <v>0.63099555163171916</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.66187687334456613</v>
+        <v>0.83716787919587843</v>
       </c>
       <c r="AM40" s="0">
         <v>0.90780976577027639</v>
@@ -8691,16 +8691,16 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.85419184769256618</v>
+        <v>0.87730004247641058</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.68392707109125772</v>
+        <v>0.81612142809158872</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.63747701152652625</v>
+        <v>0.77473998540627209</v>
       </c>
       <c r="AR42" s="0">
         <v>0.80322116124231702</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.73217575806938262</v>
+        <v>0.81303906911178836</v>
       </c>
       <c r="AP43" s="0">
         <v>0.77473998540627209</v>
@@ -9109,10 +9109,10 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.60330489449238511</v>
+        <v>0.80322116124231702</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.88467865177394445</v>
+        <v>0.97636113927199752</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.6446557384506002</v>
+        <v>0.68528960678509954</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0.90649516077659853</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.67089223168573209</v>
+        <v>0.98927120892229192</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9527,16 +9527,16 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.55150503887228786</v>
+        <v>0.80117816949852605</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.58636336341293283</v>
+        <v>0.90649516077659853</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.55250918189314102</v>
+        <v>0.60110715767763523</v>
       </c>
       <c r="AV46" s="0">
         <v>0.72642366769890643</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="BK47" s="0">
-        <v>0.69887755876930169</v>
+        <v>0.73005529751257159</v>
       </c>
       <c r="BL47" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.70542691518988887</v>
+        <v>0.72642366769890643</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.53936884029764176</v>
+        <v>0.73582615060134937</v>
       </c>
       <c r="AX48" s="0">
         <v>0.92955951659171798</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>0.6385131049435373</v>
+        <v>0.67240766380474981</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.57264908314348295</v>
+        <v>0.72377708433468324</v>
       </c>
       <c r="AV49" s="0">
         <v>0.73582615060134937</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.65053490057869845</v>
+        <v>0.92955951659171798</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.58697137062078764</v>
+        <v>0.92428756118193911</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0.57660648448056639</v>
+        <v>0.85730485250500688</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.65444900336629641</v>
+        <v>0.82202774071993345</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.62704653701078217</v>
+        <v>0.87807102674456794</v>
       </c>
       <c r="AX51" s="0">
         <v>0.85730485250500688</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.64895317744300396</v>
+        <v>0.72646540882458954</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="BH51" s="0">
-        <v>0.59039001620120957</v>
+        <v>0.7183226716180735</v>
       </c>
       <c r="BI51" s="0">
         <v>0</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="BO51" s="0">
-        <v>0.72434159516229002</v>
+        <v>0.90626575079154503</v>
       </c>
       <c r="BP51" s="0">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>0.66585028168124882</v>
+        <v>0.89961531110530035</v>
       </c>
       <c r="AI52" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0.72646540882458954</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.68851379775675547</v>
+        <v>0.97974168521642291</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0.96534632256426123</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.75843793689437</v>
+        <v>0.88246764810152611</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>0.84079913372853876</v>
+        <v>0.84977854657006979</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="0">
-        <v>0.60000436220289932</v>
+        <v>0.98466718804296804</v>
       </c>
       <c r="AD54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.7719021089533511</v>
+        <v>0.96534632256426123</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="BM54" s="0">
-        <v>0.75605379106316573</v>
+        <v>0.93186174303007885</v>
       </c>
       <c r="BN54" s="0">
         <v>0</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.70894655114142302</v>
+        <v>0.99898599692008538</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.67002141867608778</v>
+        <v>0.82390067560935787</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.64943446762214885</v>
+        <v>0.73580808263786202</v>
       </c>
       <c r="BD57" s="0">
         <v>0.99898599692008538</v>
@@ -11838,7 +11838,7 @@
         <v>0.9449768482713321</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.6776013747323455</v>
+        <v>0.99704757672321076</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="BN57" s="0">
-        <v>0.74991288049312166</v>
+        <v>0.78624459981834627</v>
       </c>
       <c r="BO57" s="0">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="AZ58" s="0">
-        <v>0.57476612810404182</v>
+        <v>0.83906215185973188</v>
       </c>
       <c r="BA58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0.82390067560935787</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.78434697451623836</v>
+        <v>0.9449768482713321</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.61537919072277836</v>
+        <v>0.89893436904677193</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.71514345099486143</v>
+        <v>0.86718029319361423</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.50738386672648406</v>
+        <v>0.69641256659084483</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="0">
-        <v>0.90461522459048993</v>
+        <v>0.99662288591435966</v>
       </c>
       <c r="Y60" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.53354731187498672</v>
+        <v>0.9959562308782175</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="0">
-        <v>0.73447515083613546</v>
+        <v>0.7760779000536957</v>
       </c>
       <c r="AF61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.52840392890563459</v>
+        <v>0.95735672772522373</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>0.82118530921880295</v>
+        <v>0.89521842884066738</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.60988002435268229</v>
+        <v>0.75004755833844583</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13498,10 +13498,10 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.63392362657315249</v>
+        <v>0.98118341288394118</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.62096593475601503</v>
+        <v>0.7869614567748755</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.64012330043578147</v>
+        <v>0.72951265076962379</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.65663688374405771</v>
+        <v>0.79445399380035275</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.54174472837746745</v>
+        <v>0.88065064194754927</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.79963196741190723</v>
+        <v>0.99991956515623914</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.71403080580882672</v>
+        <v>0.75726905094319585</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.68806924219592558</v>
+        <v>0.84502281112698907</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
